--- a/data/SpaceStationBoard.xlsx
+++ b/data/SpaceStationBoard.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Software Engineering\ClueGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole Callihan\Desktop\School\CSCI 303\ClueGame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E8563D-5A2E-44EC-8BF4-5FE366529DE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="17265" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2131,7 @@
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -2222,7 +2223,7 @@
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -2474,13 +2475,13 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2718,10 +2719,10 @@
       <c r="T24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" s="7" t="s">
+      <c r="U24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
